--- a/EazyRP_project/src/main/webapp/resources/forms/지출결의서.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/지출결의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2652" windowWidth="10728" windowHeight="6996"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="18060" windowHeight="4704"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>소  속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,9 +69,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위 금액을 청구하오니 재가하여주시기 바랍니다.
-2023년 7월 18일
-기안자 :    (인)</t>
+    <t>위 금액을 청구하오니 재가하여주시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 7월 10일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,15 +238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,9 +246,21 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,9 +271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -571,189 +573,198 @@
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="6" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-    </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -777,39 +788,41 @@
     <row r="37" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+  <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EazyRP_project/src/main/webapp/resources/forms/지출결의서.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/지출결의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2652" windowWidth="18060" windowHeight="4704"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="11244" windowHeight="6768"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지출 결의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지출 금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>2023년 7월 10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출결의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,6 +238,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,15 +254,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,7 +556,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -571,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -580,14 +580,14 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -611,159 +611,159 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
-      <c r="B10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
-      <c r="B12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
-      <c r="B15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -797,16 +797,6 @@
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A1:F1"/>
@@ -823,6 +813,16 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EazyRP_project/src/main/webapp/resources/forms/지출결의서.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/지출결의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2652" windowWidth="11244" windowHeight="6768"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="22596" windowHeight="7416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지출결의서</t>
+    <t>지출 결의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,15 +238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,6 +245,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,7 +556,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -580,14 +580,14 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -613,23 +613,23 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
@@ -649,121 +649,121 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
-      <c r="B10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
-      <c r="B15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -797,6 +797,16 @@
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A1:F1"/>
@@ -813,16 +823,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
